--- a/reportes/I10.10.2.78.xlsx
+++ b/reportes/I10.10.2.78.xlsx
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>ENRIQUEZ</t>
-  </si>
-  <si>
-    <t>WILLIAM</t>
-  </si>
-  <si>
-    <t>ERNESTO</t>
-  </si>
-  <si>
-    <t>7920/201761645</t>
+    <t xml:space="preserve">ALVARADO </t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>/201762647</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,16 +70,16 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t xml:space="preserve">KM.12.5 R.ATLANTICO </t>
-  </si>
-  <si>
-    <t>L-1A LO DE RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>GUATEMALA</t>
-  </si>
-  <si>
-    <t>51913228</t>
+    <t>MZ N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL MILAGRO ZONA 10 </t>
+  </si>
+  <si>
+    <t>MIXCO</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve">Dirección habitual </t>
@@ -88,9 +88,6 @@
     <t xml:space="preserve">Teléfono </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Fecha de nacimiento (Día     Mes     Año )</t>
   </si>
   <si>
@@ -103,10 +100,13 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1995-12-03</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>1970-03-06</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>ESTA CAPITAL</t>
   </si>
   <si>
     <t>Masculino</t>
@@ -124,15 +124,18 @@
     <t>No. De Cédula</t>
   </si>
   <si>
-    <t>Soltero</t>
-  </si>
-  <si>
-    <t>HERRERO</t>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t>ALBAÑIL</t>
   </si>
   <si>
     <t>GUATEMALTECA</t>
   </si>
   <si>
+    <t>1969701480101</t>
+  </si>
+  <si>
     <t>Nombre del Cónyugue</t>
   </si>
   <si>
@@ -145,10 +148,10 @@
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>ERNESTO GARCIA</t>
-  </si>
-  <si>
-    <t>VILMA</t>
+    <t>ALVARADO</t>
+  </si>
+  <si>
+    <t>TEODORA FLORES</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -160,15 +163,15 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>VILMA GARCIA</t>
-  </si>
-  <si>
     <t>MADRE</t>
   </si>
   <si>
     <t>IDEM</t>
   </si>
   <si>
+    <t>54138784</t>
+  </si>
+  <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
   </si>
   <si>
@@ -193,13 +196,10 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>23/10/2017</t>
-  </si>
-  <si>
-    <t>3:45:51</t>
-  </si>
-  <si>
-    <t>TRAUMA H.</t>
+    <t>24/10/2017</t>
+  </si>
+  <si>
+    <t>15:36:23</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
@@ -1180,62 +1180,62 @@
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1287,14 +1287,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1304,14 +1304,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1321,14 +1321,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1338,14 +1338,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1355,18 +1355,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1376,7 +1376,7 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1391,20 +1391,20 @@
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1414,14 +1414,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1431,39 +1431,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>

--- a/reportes/I10.10.2.78.xlsx
+++ b/reportes/I10.10.2.78.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t xml:space="preserve">ALVARADO </t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>JUAN</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>/201762647</t>
+    <t>LÒPEZ</t>
+  </si>
+  <si>
+    <t>BOROR</t>
+  </si>
+  <si>
+    <t>CÈSAR</t>
+  </si>
+  <si>
+    <t>AUGUSTO</t>
+  </si>
+  <si>
+    <t>201769347/201769467</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,15 +70,6 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>MZ N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL MILAGRO ZONA 10 </t>
-  </si>
-  <si>
-    <t>MIXCO</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -100,13 +91,13 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1970-03-06</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>ESTA CAPITAL</t>
+    <t>1993-05-17</t>
+  </si>
+  <si>
+    <t>24 AÑOS</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
   </si>
   <si>
     <t>Masculino</t>
@@ -124,16 +115,16 @@
     <t>No. De Cédula</t>
   </si>
   <si>
-    <t>Casado</t>
-  </si>
-  <si>
-    <t>ALBAÑIL</t>
-  </si>
-  <si>
-    <t>GUATEMALTECA</t>
-  </si>
-  <si>
-    <t>1969701480101</t>
+    <t>Soltero</t>
+  </si>
+  <si>
+    <t>AYUD.BUS</t>
+  </si>
+  <si>
+    <t>GUATEMALTECO</t>
+  </si>
+  <si>
+    <t>2241030670101</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -142,18 +133,15 @@
     <t xml:space="preserve">Dirección si difiere a la indicada </t>
   </si>
   <si>
+    <t>MARTA BOROR</t>
+  </si>
+  <si>
     <t>Nombre del Padre:</t>
   </si>
   <si>
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>ALVARADO</t>
-  </si>
-  <si>
-    <t>TEODORA FLORES</t>
-  </si>
-  <si>
     <t>En caso de emergencia notificar a :</t>
   </si>
   <si>
@@ -166,10 +154,10 @@
     <t>MADRE</t>
   </si>
   <si>
-    <t>IDEM</t>
-  </si>
-  <si>
-    <t>54138784</t>
+    <t>CANALITOS Z, 25</t>
+  </si>
+  <si>
+    <t>56436848</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -196,10 +184,10 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>24/10/2017</t>
-  </si>
-  <si>
-    <t>15:36:23</t>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>10:18:22</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1139,25 +1127,25 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1174,91 +1162,91 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1266,20 +1254,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1287,14 +1275,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1304,14 +1292,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1321,14 +1309,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1338,14 +1326,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1355,18 +1343,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1376,35 +1364,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1414,14 +1402,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1431,39 +1419,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1475,7 +1463,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1516,7 +1504,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1527,7 +1515,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1559,7 +1547,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1570,7 +1558,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1615,7 +1603,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1626,7 +1614,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1659,46 +1647,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1718,7 +1706,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1727,13 +1715,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1748,7 +1736,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/I10.10.2.78.xlsx
+++ b/reportes/I10.10.2.78.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>LÒPEZ</t>
-  </si>
-  <si>
-    <t>BOROR</t>
-  </si>
-  <si>
-    <t>CÈSAR</t>
-  </si>
-  <si>
-    <t>AUGUSTO</t>
-  </si>
-  <si>
-    <t>201769347/201769467</t>
+    <t>VETORAZZI</t>
+  </si>
+  <si>
+    <t>BARRIOS</t>
+  </si>
+  <si>
+    <t>ELVA</t>
+  </si>
+  <si>
+    <t>VIOLETA</t>
+  </si>
+  <si>
+    <t>/201773425</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,6 +70,15 @@
     <t>Teléfono</t>
   </si>
   <si>
+    <t>6 AV 1-60</t>
+  </si>
+  <si>
+    <t>Z. 19 LA FLORIDA</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -91,16 +100,16 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1993-05-17</t>
-  </si>
-  <si>
-    <t>24 AÑOS</t>
-  </si>
-  <si>
-    <t>GUATEMALA</t>
-  </si>
-  <si>
-    <t>Masculino</t>
+    <t>1955-07-26</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>SUCHITEPEQUEZ</t>
+  </si>
+  <si>
+    <t>Femenino</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -115,16 +124,16 @@
     <t>No. De Cédula</t>
   </si>
   <si>
-    <t>Soltero</t>
-  </si>
-  <si>
-    <t>AYUD.BUS</t>
-  </si>
-  <si>
-    <t>GUATEMALTECO</t>
-  </si>
-  <si>
-    <t>2241030670101</t>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t>AMA DE CASA</t>
+  </si>
+  <si>
+    <t>GUATEMALTECA</t>
+  </si>
+  <si>
+    <t>NO PRESENTA</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -133,7 +142,7 @@
     <t xml:space="preserve">Dirección si difiere a la indicada </t>
   </si>
   <si>
-    <t>MARTA BOROR</t>
+    <t>MARCO TULIO ALVAREZ</t>
   </si>
   <si>
     <t>Nombre del Padre:</t>
@@ -142,6 +151,12 @@
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
+    <t>JUAN PABLO VETORAZZI</t>
+  </si>
+  <si>
+    <t>MARIA EUGENIA BARRIOS</t>
+  </si>
+  <si>
     <t>En caso de emergencia notificar a :</t>
   </si>
   <si>
@@ -151,13 +166,13 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>MADRE</t>
-  </si>
-  <si>
-    <t>CANALITOS Z, 25</t>
-  </si>
-  <si>
-    <t>56436848</t>
+    <t>JAQUELIN ALVAREZ</t>
+  </si>
+  <si>
+    <t>HIJA</t>
+  </si>
+  <si>
+    <t>3406-8429</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -184,10 +199,10 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>10/11/2017</t>
-  </si>
-  <si>
-    <t>10:18:22</t>
+    <t>20/11/2017</t>
+  </si>
+  <si>
+    <t>13:4:40</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1127,25 +1142,25 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1162,91 +1177,91 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1254,20 +1269,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1275,14 +1290,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1292,14 +1307,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1309,14 +1324,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1326,14 +1341,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1343,18 +1358,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1364,35 +1379,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1402,14 +1417,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1419,39 +1434,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1463,7 +1478,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1504,7 +1519,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1515,7 +1530,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1547,7 +1562,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1558,7 +1573,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1603,7 +1618,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1614,7 +1629,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1647,46 +1662,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1706,7 +1721,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1715,13 +1730,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1736,7 +1751,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/I10.10.2.78.xlsx
+++ b/reportes/I10.10.2.78.xlsx
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>VETORAZZI</t>
-  </si>
-  <si>
-    <t>BARRIOS</t>
-  </si>
-  <si>
-    <t>ELVA</t>
-  </si>
-  <si>
-    <t>VIOLETA</t>
-  </si>
-  <si>
-    <t>/201773425</t>
+    <t>AVILA</t>
+  </si>
+  <si>
+    <t>HERRARTE</t>
+  </si>
+  <si>
+    <t>JOSÈ</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>/201774511</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,10 +70,13 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>6 AV 1-60</t>
-  </si>
-  <si>
-    <t>Z. 19 LA FLORIDA</t>
+    <t xml:space="preserve">3 AV  MZ  3 LOTE 21 </t>
+  </si>
+  <si>
+    <t>PRADOS DE LA LAGUNILLA</t>
+  </si>
+  <si>
+    <t>SAN PEDRO AYAMPUC</t>
   </si>
   <si>
     <t>GUATEMALA</t>
@@ -100,16 +103,16 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1955-07-26</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>SUCHITEPEQUEZ</t>
-  </si>
-  <si>
-    <t>Femenino</t>
+    <t>1999-12-27</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>ESCUINTLA</t>
+  </si>
+  <si>
+    <t>Masculino</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -127,13 +130,13 @@
     <t>Casado</t>
   </si>
   <si>
-    <t>AMA DE CASA</t>
+    <t>ESTUDIANTE</t>
   </si>
   <si>
     <t>GUATEMALTECA</t>
   </si>
   <si>
-    <t>NO PRESENTA</t>
+    <t>3240086430513</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -142,7 +145,7 @@
     <t xml:space="preserve">Dirección si difiere a la indicada </t>
   </si>
   <si>
-    <t>MARCO TULIO ALVAREZ</t>
+    <t>ESTEFANY PEÑA</t>
   </si>
   <si>
     <t>Nombre del Padre:</t>
@@ -151,10 +154,10 @@
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>JUAN PABLO VETORAZZI</t>
-  </si>
-  <si>
-    <t>MARIA EUGENIA BARRIOS</t>
+    <t>NICOLAS AVILA</t>
+  </si>
+  <si>
+    <t>CORA HERRARTE</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -166,13 +169,10 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>JAQUELIN ALVAREZ</t>
-  </si>
-  <si>
-    <t>HIJA</t>
-  </si>
-  <si>
-    <t>3406-8429</t>
+    <t>MADRE</t>
+  </si>
+  <si>
+    <t>55 57 16 71</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -199,10 +199,10 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>20/11/2017</t>
-  </si>
-  <si>
-    <t>13:4:40</t>
+    <t>23/11/2017</t>
+  </si>
+  <si>
+    <t>9:15:27</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1150,17 +1150,17 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1177,91 +1177,91 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1269,20 +1269,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1290,14 +1290,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1307,14 +1307,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1324,14 +1324,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1341,14 +1341,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1358,18 +1358,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1379,7 +1379,7 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
@@ -1417,14 +1417,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1466,7 +1466,7 @@
         <v>61</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
